--- a/khuvuc.xlsx
+++ b/khuvuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VKSNDTC\VKS Projects\thongkenhaplieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C066E8-888B-4533-A517-46577188FC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49DA15-0755-4524-971B-E91650589A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{2C23A6C0-C5E7-4D79-B3F8-DE97192969ED}"/>
   </bookViews>
@@ -805,11 +805,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19140736-3664-4DEF-8735-71EF0EB6F03E}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="50.95" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
